--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1163"/>
+  <dimension ref="A1:I1164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42861,6 +42861,43 @@
         </is>
       </c>
     </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1164" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1164"/>
+  <dimension ref="A1:I1165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42898,6 +42898,41 @@
         </is>
       </c>
     </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1165"/>
+  <dimension ref="A1:I1166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42933,6 +42933,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1166" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1166"/>
+  <dimension ref="A1:I1167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42970,6 +42970,43 @@
         </is>
       </c>
     </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1167" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1167"/>
+  <dimension ref="A1:I1168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43007,6 +43007,43 @@
         </is>
       </c>
     </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1168"/>
+  <dimension ref="A1:I1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43044,6 +43044,43 @@
         </is>
       </c>
     </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1169"/>
+  <dimension ref="A1:I1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43081,6 +43081,43 @@
         </is>
       </c>
     </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1170"/>
+  <dimension ref="A1:I1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43118,6 +43118,43 @@
         </is>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1171"/>
+  <dimension ref="A1:I1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43155,6 +43155,43 @@
         </is>
       </c>
     </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1172"/>
+  <dimension ref="A1:I1173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43192,6 +43192,43 @@
         </is>
       </c>
     </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1173"/>
+  <dimension ref="A1:I1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43229,6 +43229,43 @@
         </is>
       </c>
     </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1174"/>
+  <dimension ref="A1:I1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43266,6 +43266,43 @@
         </is>
       </c>
     </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1175"/>
+  <dimension ref="A1:I1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43303,6 +43303,80 @@
         </is>
       </c>
     </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1177"/>
+  <dimension ref="A1:I1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43377,6 +43377,43 @@
         </is>
       </c>
     </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1178"/>
+  <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43414,6 +43414,43 @@
         </is>
       </c>
     </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1179"/>
+  <dimension ref="A1:I1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43451,6 +43451,43 @@
         </is>
       </c>
     </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1180"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43488,6 +43488,43 @@
         </is>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43525,6 +43525,41 @@
         </is>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43560,6 +43560,80 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43634,6 +43634,43 @@
         </is>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43671,6 +43671,43 @@
         </is>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2243"/>
+  <dimension ref="A1:I2244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80703,6 +80703,41 @@
         </is>
       </c>
     </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2244" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2244" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2244" t="n">
+        <v>89900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2244"/>
+  <dimension ref="A1:I2245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80738,6 +80738,41 @@
         <v>89900</v>
       </c>
     </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2245" t="n">
+        <v>50500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2245"/>
+  <dimension ref="A1:I2246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80773,6 +80773,43 @@
         <v>50500</v>
       </c>
     </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2246" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2246"/>
+  <dimension ref="A1:I2247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80810,6 +80810,41 @@
         </is>
       </c>
     </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2247" t="n">
+        <v>11100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2247"/>
+  <dimension ref="A1:I2248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80845,6 +80845,43 @@
         <v>11100</v>
       </c>
     </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2248"/>
+  <dimension ref="A1:I2249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80882,6 +80882,43 @@
         </is>
       </c>
     </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2249" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2249" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2249" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2249"/>
+  <dimension ref="A1:I2250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80919,6 +80919,41 @@
         </is>
       </c>
     </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2250" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2250" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2250" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2250"/>
+  <dimension ref="A1:I2251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80954,6 +80954,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2251" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2251"/>
+  <dimension ref="A1:I2252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80989,6 +80989,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2252" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2252"/>
+  <dimension ref="A1:I2253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81026,6 +81026,43 @@
         </is>
       </c>
     </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2253" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2253"/>
+  <dimension ref="A1:I2254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81063,6 +81063,41 @@
         </is>
       </c>
     </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2254" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2254"/>
+  <dimension ref="A1:I2255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81098,6 +81098,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2255" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2255"/>
+  <dimension ref="A1:I2256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81135,6 +81135,43 @@
         </is>
       </c>
     </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2256" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2256"/>
+  <dimension ref="A1:I2257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81172,6 +81172,41 @@
         </is>
       </c>
     </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2257" t="n">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2852"/>
+  <dimension ref="A1:I2853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102032,6 +102032,41 @@
         <v>130000</v>
       </c>
     </row>
+    <row r="2853">
+      <c r="A2853" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2853" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2853" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2853" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2853" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2853" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2853" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2853" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2853"/>
+  <dimension ref="A1:I2854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102067,6 +102067,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2854">
+      <c r="A2854" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2854" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2854" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2854" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2854" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2854" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2854" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2854" t="n">
+        <v>43000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2854"/>
+  <dimension ref="A1:I2855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102102,6 +102102,41 @@
         <v>43000</v>
       </c>
     </row>
+    <row r="2855">
+      <c r="A2855" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2855" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2855" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2855" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2855" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2855" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G2855" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2855" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2855" t="n">
+        <v>72100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2855"/>
+  <dimension ref="A1:I2856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102137,6 +102137,41 @@
         <v>72100</v>
       </c>
     </row>
+    <row r="2856">
+      <c r="A2856" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2856" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2856" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2856" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2856" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2856" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2856" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2856" t="n">
+        <v>9400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2856"/>
+  <dimension ref="A1:I2857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102172,6 +102172,43 @@
         <v>9400</v>
       </c>
     </row>
+    <row r="2857">
+      <c r="A2857" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2857" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2857" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2857" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2857" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2857" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2857" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2857" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2857"/>
+  <dimension ref="A1:I2858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102209,6 +102209,43 @@
         </is>
       </c>
     </row>
+    <row r="2858">
+      <c r="A2858" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2858" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2858" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2858" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2858" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2858" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2858" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2858" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2858"/>
+  <dimension ref="A1:I2859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102246,6 +102246,43 @@
         </is>
       </c>
     </row>
+    <row r="2859">
+      <c r="A2859" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2859" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2859" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2859" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2859" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2859" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2859" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2859" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2859" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2859"/>
+  <dimension ref="A1:I2860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102283,6 +102283,41 @@
         </is>
       </c>
     </row>
+    <row r="2860">
+      <c r="A2860" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2860" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2860" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2860" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2860" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2860" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2860" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2860" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2860" t="n">
+        <v>11200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2860"/>
+  <dimension ref="A1:I2862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102318,6 +102318,78 @@
         <v>11200</v>
       </c>
     </row>
+    <row r="2861">
+      <c r="A2861" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2861" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2861" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2861" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2861" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2861" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2861" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2861" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2862" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2862" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2862" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2862" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2862" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2862" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2862" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2862"/>
+  <dimension ref="A1:I2863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102390,6 +102390,41 @@
         </is>
       </c>
     </row>
+    <row r="2863">
+      <c r="A2863" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2863" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2863" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2863" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2863" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2863" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2863" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2863" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2863"/>
+  <dimension ref="A1:I2866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102425,6 +102425,115 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2864">
+      <c r="A2864" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2864" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2864" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2864" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2864" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2864" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2864" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2864" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2865" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2865" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2865" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2865" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2865" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2865" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2865" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2866" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2866" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2866" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2866" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2866" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2866" t="n">
+        <v>145000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2866"/>
+  <dimension ref="A1:I2867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102534,6 +102534,41 @@
         <v>145000</v>
       </c>
     </row>
+    <row r="2867">
+      <c r="A2867" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2867" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2867" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2867" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2867" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2867" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2867" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0122.xlsx
+++ b/data/0122.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2867"/>
+  <dimension ref="A1:I2870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102569,6 +102569,111 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2868">
+      <c r="A2868" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2868" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2868" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2868" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2868" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2868" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2868" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2869" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2869" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2869" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2869" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2869" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2869" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2869" t="n">
+        <v>21100</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2870" t="inlineStr">
+        <is>
+          <t>0122</t>
+        </is>
+      </c>
+      <c r="D2870" t="inlineStr">
+        <is>
+          <t>AIM</t>
+        </is>
+      </c>
+      <c r="E2870" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2870" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2870" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2870" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2870" t="n">
+        <v>5300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
